--- a/doc/Connecteurs-Import/Siham/Doc_et_MOP/Mapping_Siham_Ose/A_Choix_niveaux_UO_pour_OSE_v2.xlsx
+++ b/doc/Connecteurs-Import/Siham/Doc_et_MOP/Mapping_Siham_Ose/A_Choix_niveaux_UO_pour_OSE_v2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\SC\DSIN\Commun\2 Exploitation\Applications\Domaine RH\OSE\7 Interfaces\Connecteurs\RH\SIHAM_OSE_V15\Doc_et_MOP\Mapping_Siham_Ose\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\SC\_InterDirections\Projet_GSE\OSE\Deploiement\Connecteurs\Siham\Mapping_SIHAM_vers_OSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="UO_Recherche" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1146">
   <si>
     <t>RECHERCHE DS</t>
   </si>
@@ -3391,18 +3391,12 @@
     <t>MOMA</t>
   </si>
   <si>
-    <t>VUE V_SIHAM_BADGE_ACCES_ARD - Fonction : UM_AFFICH_UO_BADGE_ARD - Choix des niveaux d'UO pour les accès principaux sous ARD</t>
-  </si>
-  <si>
     <t>3 (niveau Direction)</t>
   </si>
   <si>
     <t>3 (niveau Composante)</t>
   </si>
   <si>
-    <t>Extraction STRUCTURE POUR OSE - Choix des nieaux d'UO pour OSE (gestion des HC UM)</t>
-  </si>
-  <si>
     <t>Niveau d'UO retenu pour envoi à OSE</t>
   </si>
   <si>
@@ -3443,13 +3437,37 @@
   </si>
   <si>
     <t>HRO%05'</t>
+  </si>
+  <si>
+    <t>UO liée MCE</t>
+  </si>
+  <si>
+    <t>spécial pour les HB% part ext mais faisant que des heures MCE à l'UM (comme les 100% rech er MCE) - v2.1 le 27/04/21</t>
+  </si>
+  <si>
+    <t>v2.1 27/04/21 : Ajout UO liée aux MCE</t>
+  </si>
+  <si>
+    <t>Choix des UO et niveau retenu pour créer les Structures dans OSE (permettra de coder le fonction OSE.UM_AFFICH_UO_SUP)</t>
+  </si>
+  <si>
+    <t>Choix des UO RECHERCHE et niveau retenu pour créer les Structures dans OSE (permettra de coder le fonction OSE.UM_AFFICH_UO_SUP)</t>
+  </si>
+  <si>
+    <t>A adapter suivant codage établissement</t>
+  </si>
+  <si>
+    <t>Choix des UO de Directions et niveau retenu pour créer les Structures dans OSE (permettra de coder le fonction OSE.UM_AFFICH_UO_SUP)</t>
+  </si>
+  <si>
+    <t>Choix des UO Composantes pédagogiques et niveau retenu pour créer les Structures dans OSE (permettra de coder le fonction OSE.UM_AFFICH_UO_SUP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3535,8 +3553,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3552,6 +3586,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3724,7 +3764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3841,12 +3881,29 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4157,7 +4214,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4168,23 +4225,32 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="64.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>1125</v>
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="86" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="90" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33.75" customHeight="1">
       <c r="C3" s="4"/>
       <c r="D3" s="72" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="71"/>
@@ -4193,8 +4259,8 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="75" t="s">
-        <v>1133</v>
+      <c r="D4" s="88" t="s">
+        <v>1131</v>
       </c>
       <c r="E4" s="75">
         <v>4</v>
@@ -4204,16 +4270,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="C5" s="81" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D5" s="79">
         <v>4</v>
       </c>
-      <c r="E5" s="79" t="s">
-        <v>1133</v>
+      <c r="E5" s="89" t="s">
+        <v>1131</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G5" s="17"/>
     </row>
@@ -4221,11 +4287,11 @@
       <c r="C6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="75" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>1133</v>
+      <c r="D6" s="88" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>1131</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -4845,10 +4911,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4859,44 +4925,51 @@
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="86" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="90" t="s">
+        <v>1143</v>
+      </c>
       <c r="F2" s="55"/>
     </row>
-    <row r="3" spans="1:7" ht="48.75" customHeight="1">
+    <row r="3" spans="1:8" ht="48.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="C3" s="4"/>
       <c r="D3" s="78" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F3" s="68"/>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="3"/>
       <c r="C4" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>1133</v>
+        <v>1122</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>1131</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -4905,7 +4978,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="30" customHeight="1">
+    <row r="6" spans="1:8" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="42" t="s">
         <v>2</v>
@@ -4919,7 +4992,7 @@
       </c>
       <c r="F6" s="42"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -4939,7 +5012,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="C9" s="11">
         <v>3</v>
       </c>
@@ -4953,7 +5026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="C10" s="11">
         <v>3</v>
       </c>
@@ -4967,7 +5040,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="C11" s="11">
         <v>3</v>
       </c>
@@ -4981,7 +5054,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="C12" s="11">
         <v>3</v>
       </c>
@@ -4995,7 +5068,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="C13" s="11">
         <v>3</v>
       </c>
@@ -5009,7 +5082,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="C14" s="11">
         <v>3</v>
       </c>
@@ -5023,7 +5096,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="C15" s="11">
         <v>3</v>
       </c>
@@ -5037,7 +5110,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="C16" s="11">
         <v>3</v>
       </c>
@@ -5414,7 +5487,7 @@
       <c r="F44" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="G44" s="82" t="s">
+      <c r="G44" s="84" t="s">
         <v>578</v>
       </c>
     </row>
@@ -5431,7 +5504,7 @@
       <c r="F45" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="G45" s="83"/>
+      <c r="G45" s="85"/>
     </row>
     <row r="46" spans="3:7">
       <c r="C46" s="34">
@@ -5446,7 +5519,7 @@
       <c r="F46" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="G46" s="83"/>
+      <c r="G46" s="85"/>
     </row>
     <row r="47" spans="3:7">
       <c r="C47" s="34">
@@ -5461,7 +5534,7 @@
       <c r="F47" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="G47" s="83"/>
+      <c r="G47" s="85"/>
     </row>
     <row r="48" spans="3:7">
       <c r="C48" s="37">
@@ -5476,7 +5549,7 @@
       <c r="F48" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="G48" s="83"/>
+      <c r="G48" s="85"/>
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="31">
@@ -5578,7 +5651,7 @@
   <dimension ref="A1:L216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5589,26 +5662,33 @@
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="60" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>1122</v>
+    <row r="1" spans="1:12" ht="45">
+      <c r="A1" s="86" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="2" spans="1:12">
+      <c r="A2" s="90" t="s">
+        <v>1143</v>
+      </c>
       <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:12" ht="46.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="C3" s="7"/>
       <c r="D3" s="78" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F3" s="68"/>
     </row>
@@ -5618,13 +5698,13 @@
         <v>266</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>1133</v>
+        <v>1123</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>1131</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="17" customFormat="1"/>
@@ -8870,7 +8950,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8882,22 +8962,28 @@
     <col min="8" max="8" width="50.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>1122</v>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="86" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="2" spans="1:8">
+      <c r="A2" s="90" t="s">
+        <v>1143</v>
+      </c>
       <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:8" ht="63" customHeight="1">
       <c r="A3" s="2"/>
       <c r="C3" s="7"/>
       <c r="D3" s="78" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F3" s="68"/>
     </row>
@@ -8906,11 +8992,11 @@
       <c r="C4" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="D4" s="74" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>1133</v>
+      <c r="D4" s="87" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>1131</v>
       </c>
       <c r="F4" s="51"/>
     </row>
@@ -8919,11 +9005,11 @@
       <c r="C5" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="D5" s="75" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>1133</v>
+      <c r="D5" s="88" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>1131</v>
       </c>
       <c r="F5" s="51"/>
       <c r="H5" s="54"/>
@@ -8936,53 +9022,55 @@
       <c r="D6" s="75">
         <v>3</v>
       </c>
-      <c r="E6" s="75" t="s">
-        <v>1133</v>
+      <c r="E6" s="88" t="s">
+        <v>1131</v>
       </c>
       <c r="F6" s="76" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="41" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F7" s="83" t="s">
         <v>1135</v>
       </c>
-      <c r="D7" s="79" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>1137</v>
-      </c>
       <c r="H7" s="53"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="28.5">
       <c r="A8" s="3"/>
       <c r="C8" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="D8" s="75" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F8" s="70"/>
+      <c r="D8" s="79" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>1139</v>
+      </c>
       <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="D9" s="75" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>1133</v>
+      <c r="D9" s="88" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>1131</v>
       </c>
       <c r="F9" s="51"/>
     </row>
@@ -9179,7 +9267,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C25" s="31">
         <v>3</v>
@@ -9196,7 +9284,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C26" s="34">
         <v>3</v>
@@ -9241,7 +9329,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C29" s="34">
         <v>3</v>
